--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIBugakov\Documents\GitHub\PIX_riwGosh\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIBugakov\Documents\GitHub\RivegaucheHTTP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Имя</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>MailRecip</t>
+  </si>
+  <si>
+    <t>TableSqlName</t>
+  </si>
+  <si>
+    <t>Nikita_TableSqlName</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>credentialPG</t>
+  </si>
+  <si>
+    <t>pg_Credential</t>
   </si>
 </sst>
 </file>
@@ -527,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2261,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2325,9 +2340,37 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Имя</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>pg_Credential</t>
+  </si>
+  <si>
+    <t>TableSqlCity</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
 </sst>
 </file>
@@ -542,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -655,6 +661,12 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2276,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
